--- a/tpl/dcasp v2024.01.99.xlsx
+++ b/tpl/dcasp v2024.01.99.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everton\Desktop\Sistemas\rptgen\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C674E632-208C-4650-AF42-3FEF2D7228ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C272734-B03A-497A-96D8-6F1E4AA45E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="17" activeTab="23" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="15" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros Manuais" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,9 @@
     <sheet name="Conferência" sheetId="66" r:id="rId25"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'BF Q0A'!$B$2:$D$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'BF Q0B'!$B$2:$D$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'BF Q1'!$B$2:$H$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'BF Q0A'!$B$2:$D$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'BF Q0B'!$B$2:$D$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'BF Q1'!$B$2:$H$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'BO Q0A'!$B$2:$F$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'BO Q0B'!$B$2:$H$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'BP Q0'!$B$2:$D$72</definedName>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="636">
   <si>
     <t>Parâmetro</t>
   </si>
@@ -1188,27 +1188,15 @@
     <t>INGRESSOS</t>
   </si>
   <si>
-    <t>Ordinária</t>
-  </si>
-  <si>
-    <t>Vinculada</t>
-  </si>
-  <si>
     <t>Recursos Vinculados à Educação</t>
   </si>
   <si>
     <t>Recursos Vinculados à Saúde</t>
   </si>
   <si>
-    <t>Recursos Vinculados à Previdência Social – RPPS</t>
-  </si>
-  <si>
     <t>Recursos Vinculados à Assistência Social</t>
   </si>
   <si>
-    <t>Outras Destinações de Recursos</t>
-  </si>
-  <si>
     <t>Transferências Recebidas para a Execução Orçamentária</t>
   </si>
   <si>
@@ -1233,9 +1221,6 @@
     <t>Recebimentos Extraorçamentários</t>
   </si>
   <si>
-    <t>Total dos Recebimentos Extraorçamentários (III)</t>
-  </si>
-  <si>
     <t>Inscrição de Restos a Pagar Não Processados</t>
   </si>
   <si>
@@ -1251,18 +1236,12 @@
     <t>Saldo do Exercício Anterior</t>
   </si>
   <si>
-    <t>TOTAL DOS INGRESSOS (V) = (I+II+III+IV)</t>
-  </si>
-  <si>
     <t>DISPÊNDIOS</t>
   </si>
   <si>
     <t>Despesa Orçamentária</t>
   </si>
   <si>
-    <t>Total das Despesas Orçamentárias (VI)</t>
-  </si>
-  <si>
     <t>Transferências Financeiras Concedidas</t>
   </si>
   <si>
@@ -1275,9 +1254,6 @@
     <t>Transferências Concedidas para Aportes de recursos para o RPPS</t>
   </si>
   <si>
-    <t>Total das Transferências Financeiras Concedidas (VII)</t>
-  </si>
-  <si>
     <t>Pagamentos Extraorçamentários</t>
   </si>
   <si>
@@ -1290,21 +1266,9 @@
     <t>Outros Pagamentos Extraorçamentários</t>
   </si>
   <si>
-    <t>Total dos Pagamentos Extraorçamentários (VIII)</t>
-  </si>
-  <si>
     <t>Saldo para o Exercício Seguinte</t>
   </si>
   <si>
-    <t>Total do Saldo para o Exercício Seguinte (IX)</t>
-  </si>
-  <si>
-    <t>Total do Saldo do Exercício Anterior (IV)</t>
-  </si>
-  <si>
-    <t>TOTAL DOS DISPÊNDIOS (X) = (VI+VII+VIII+IX)</t>
-  </si>
-  <si>
     <t>Balanço Financeiro</t>
   </si>
   <si>
@@ -1957,6 +1921,99 @@
   </si>
   <si>
     <t>Financiamento</t>
+  </si>
+  <si>
+    <t>Recursos Não Vinculados</t>
+  </si>
+  <si>
+    <t>Recursos Vinculados (exceto RPPS)</t>
+  </si>
+  <si>
+    <t>Recursos Vinculados à Previdência Social (exceto RPPS)</t>
+  </si>
+  <si>
+    <t>Demais Vinculações Decorrentes de Transferências</t>
+  </si>
+  <si>
+    <t>Demais Vinculações Legais</t>
+  </si>
+  <si>
+    <t>Outras Vinculações</t>
+  </si>
+  <si>
+    <t>Recursos Vinculados ao RPPS</t>
+  </si>
+  <si>
+    <t>Recuros Vinculados ao RPPS - Fundo em Capitalização (Plano Previdenciário)</t>
+  </si>
+  <si>
+    <t>Recuros Vinculados ao RPPS - Fundo em Repartição (Plano Financeiro)</t>
+  </si>
+  <si>
+    <t>Recuros Vinculados ao RPPS - Taxa de Administração</t>
+  </si>
+  <si>
+    <t>Resgate de Investimentos e Aplicações Financeiras</t>
+  </si>
+  <si>
+    <t>Desbloqueio de Valores em Caixa</t>
+  </si>
+  <si>
+    <t>Outras Movimentações Recebidas</t>
+  </si>
+  <si>
+    <t>Outras Movimentações Financeiras Recebidas</t>
+  </si>
+  <si>
+    <t>Total de Outras Movimentações Financeiras Recebidas (III)</t>
+  </si>
+  <si>
+    <t>Total dos Recebimentos Extraorçamentários (IV)</t>
+  </si>
+  <si>
+    <t>Caixa e Equivalentes de Caixa (exceto RPPS)</t>
+  </si>
+  <si>
+    <t>Caixa e Equivalentes de Caixa do RPPS</t>
+  </si>
+  <si>
+    <t>Total do Saldo do Exercício Anterior (V)</t>
+  </si>
+  <si>
+    <t>TOTAL DOS INGRESSOS (V) = (I+II+III+IV+V)</t>
+  </si>
+  <si>
+    <t>Total das Despesas Orçamentárias (VII)</t>
+  </si>
+  <si>
+    <t>Total das Transferências Financeiras Concedidas (VIII)</t>
+  </si>
+  <si>
+    <t>Transferências para Investimentos e Aplicações Financeiras</t>
+  </si>
+  <si>
+    <t>Bloqueio de Valores em Caixa</t>
+  </si>
+  <si>
+    <t>Outras Movimentações Concedidas</t>
+  </si>
+  <si>
+    <t>Total de Outras Movimentações Financeiras Concedidas (IX)</t>
+  </si>
+  <si>
+    <t>Total dos Pagamentos Extraorçamentários (X)</t>
+  </si>
+  <si>
+    <t>Total do Saldo para o Exercício Seguinte (XI)</t>
+  </si>
+  <si>
+    <t>TOTAL DOS DISPÊNDIOS (XII) = (VII+VIII+IX+X+XI)</t>
+  </si>
+  <si>
+    <t>(f)=(d-e)</t>
+  </si>
+  <si>
+    <t>Outras Movimentações Financeiras Concedidas</t>
   </si>
 </sst>
 </file>
@@ -2331,6 +2388,9 @@
       <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2354,9 +2414,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2784,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2800,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2832,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -3117,7 +3174,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3503,12 +3560,12 @@
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="str">
+      <c r="B36" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="str">
@@ -4331,12 +4388,12 @@
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="54" t="str">
+      <c r="B78" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="str">
@@ -4766,7 +4823,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B42)</f>
@@ -5336,12 +5393,12 @@
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="54" t="str">
+      <c r="B95" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="str">
@@ -5388,10 +5445,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:O48"/>
+  <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5460,22 +5517,22 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="14" t="e">
+        <v>605</v>
+      </c>
+      <c r="C14" s="14">
         <f>'BF Q1'!E13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="14" t="e">
-        <f>'BF Q1'!F13</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D14" s="14">
+        <f>'BF Q1'!H13</f>
+        <v>0</v>
       </c>
       <c r="K14"/>
       <c r="L14"/>
@@ -5485,15 +5542,15 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="14" t="e">
-        <f>SUM(C16:C20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="14" t="e">
-        <f>SUM(D16:D20)</f>
-        <v>#REF!</v>
+        <v>606</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C16:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
       </c>
       <c r="K15"/>
       <c r="L15"/>
@@ -5503,15 +5560,15 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="14" t="e">
+        <v>360</v>
+      </c>
+      <c r="C16" s="14">
         <f>'BF Q1'!E15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="14" t="e">
-        <f>'BF Q1'!F15</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D16" s="14">
+        <f>'BF Q1'!H15</f>
+        <v>0</v>
       </c>
       <c r="K16"/>
       <c r="L16"/>
@@ -5521,15 +5578,15 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="14" t="e">
+        <v>361</v>
+      </c>
+      <c r="C17" s="14">
         <f>'BF Q1'!E16</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="14" t="e">
-        <f>'BF Q1'!F16</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D17" s="14">
+        <f>'BF Q1'!H16</f>
+        <v>0</v>
       </c>
       <c r="K17"/>
       <c r="L17"/>
@@ -5539,15 +5596,15 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="14" t="e">
+        <v>362</v>
+      </c>
+      <c r="C18" s="14">
         <f>'BF Q1'!E17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="14" t="e">
-        <f>'BF Q1'!F17</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D18" s="14">
+        <f>'BF Q1'!H17</f>
+        <v>0</v>
       </c>
       <c r="K18"/>
       <c r="L18"/>
@@ -5557,15 +5614,15 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="14" t="e">
+        <v>607</v>
+      </c>
+      <c r="C19" s="14">
         <f>'BF Q1'!E18</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="14" t="e">
-        <f>'BF Q1'!F18</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D19" s="14">
+        <f>'BF Q1'!H18</f>
+        <v>0</v>
       </c>
       <c r="K19"/>
       <c r="L19"/>
@@ -5575,15 +5632,15 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="14" t="e">
+        <v>608</v>
+      </c>
+      <c r="C20" s="14">
         <f>'BF Q1'!E19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="14" t="e">
-        <f>'BF Q1'!F19</f>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="D20" s="14">
+        <f>'BF Q1'!H19</f>
+        <v>0</v>
       </c>
       <c r="K20"/>
       <c r="L20"/>
@@ -5592,16 +5649,16 @@
       <c r="O20"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>371</v>
-      </c>
-      <c r="C21" s="15" t="e">
-        <f>C14+C15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="15" t="e">
-        <f>D14+D15</f>
-        <v>#REF!</v>
+      <c r="B21" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="14">
+        <f>'BF Q1'!E20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
+        <f>'BF Q1'!H20</f>
+        <v>0</v>
       </c>
       <c r="K21"/>
       <c r="L21"/>
@@ -5610,9 +5667,17 @@
       <c r="O21"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="B22" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'BF Q1'!E21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <f>'BF Q1'!H21</f>
+        <v>0</v>
+      </c>
       <c r="K22"/>
       <c r="L22"/>
       <c r="M22"/>
@@ -5620,11 +5685,17 @@
       <c r="O22"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" s="14">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f>SUM(D24:D26)</f>
+        <v>0</v>
+      </c>
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23"/>
@@ -5632,16 +5703,16 @@
       <c r="O23"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="C24" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C24)</f>
-        <v>#REF!</v>
+      <c r="B24" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="C24" s="14">
+        <f>'BF Q1'!E23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="14">
+        <f>'BF Q1'!H23</f>
+        <v>0</v>
       </c>
       <c r="K24"/>
       <c r="L24"/>
@@ -5650,16 +5721,16 @@
       <c r="O24"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C25" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C25)</f>
-        <v>#REF!</v>
+      <c r="B25" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="14">
+        <f>'BF Q1'!E24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="14">
+        <f>'BF Q1'!H24</f>
+        <v>0</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -5668,16 +5739,16 @@
       <c r="O25"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C26" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C26)</f>
-        <v>#REF!</v>
+      <c r="B26" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="14">
+        <f>'BF Q1'!E25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="14">
+        <f>'BF Q1'!H25</f>
+        <v>0</v>
       </c>
       <c r="K26"/>
       <c r="L26"/>
@@ -5687,15 +5758,15 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="C27" s="15" t="e">
-        <f>SUM(C24:C26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D27" s="15" t="e">
-        <f>SUM(D24:D26)</f>
-        <v>#REF!</v>
+        <v>367</v>
+      </c>
+      <c r="C27" s="15">
+        <f>C14+C15+C23</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="15">
+        <f>D14+D15+D23</f>
+        <v>0</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -5704,9 +5775,9 @@
       <c r="O27"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
       <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
@@ -5715,7 +5786,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -5727,7 +5798,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B30)</f>
@@ -5737,10 +5808,15 @@
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C30)</f>
         <v>#REF!</v>
       </c>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B31)</f>
@@ -5750,10 +5826,15 @@
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C31)</f>
         <v>#REF!</v>
       </c>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B32)</f>
@@ -5763,143 +5844,328 @@
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C32)</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C33" s="14">
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C33" s="15" t="e">
+        <f>SUM(C30:C32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="15" t="e">
+        <f>SUM(D30:D32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="C36" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B36)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D36" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C36)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="C37" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B37)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D37" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C37)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C38" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D38" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>619</v>
+      </c>
+      <c r="C39" s="15" t="e">
+        <f>SUM(C36:C38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D39" s="15" t="e">
+        <f>SUM(D36:D38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+      <c r="O41"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B42)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C42)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="C43" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C43)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B44)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D44" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C44)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C45" s="14">
         <f>SUM(tblBfOutrosExtra[Recebimentos])</f>
         <v>0</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D45" s="14">
         <f>SUM(tblBfOutrosExtraAnterior[Recebimentos])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="C46" s="15" t="e">
+        <f>SUM(C42:C45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="15" t="e">
+        <f>SUM(D42:D45)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="C34" s="15" t="e">
-        <f>SUM(C30:C33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="15" t="e">
-        <f>SUM(D30:D33)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C38)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="C39" s="15" t="e">
-        <f>SUM(C37:C38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="15" t="e">
-        <f>SUM(D37:D38)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C41" s="16" t="e">
-        <f>SUM(C39,C34,C27,C21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D41" s="16" t="e">
-        <f>SUM(D39,D34,D27,D21)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="str">
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B49)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C49)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B51)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D51" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0A'!C51)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="C52" s="15" t="e">
+        <f>SUM(C49:C51)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D52" s="15" t="e">
+        <f>SUM(D49:D51)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>624</v>
+      </c>
+      <c r="C54" s="16" t="e">
+        <f>SUM(C52,C46,C33,C27,C39)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D54" s="16" t="e">
+        <f>SUM(D52,D46,D33,D27,D39)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="str">
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="str">
         <f>UPPER(assContabilistaNome)</f>
         <v>EVERTON DA ROSA</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C59" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
         <v>JOÃO EDÉCIO GRAEF</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="str">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="str">
         <f>assContabilistaCargo</f>
         <v>Contador CRC nº RS-076595/O-3</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C60" s="3" t="str">
         <f>assGestorCargo</f>
         <v>Prefeito Municipal</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="str">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="str">
         <f>"CPF nº "&amp;assContabilistaCPF</f>
         <v>CPF nº 962.670.200-10</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C61" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
         <v>CPF nº 189.955.190.53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5913,10 +6179,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:N48"/>
+  <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5990,7 +6256,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -6012,7 +6278,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6024,7 +6290,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>360</v>
+        <v>605</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B14)</f>
@@ -6042,15 +6308,15 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="14" t="e">
-        <f>SUM(C16:C20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="14" t="e">
-        <f>SUM(D16:D20)</f>
-        <v>#REF!</v>
+        <v>606</v>
+      </c>
+      <c r="C15" s="14">
+        <f>SUM(C16:C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="14">
+        <f>SUM(D16:D22)</f>
+        <v>0</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -6060,16 +6326,10 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C16)</f>
-        <v>#REF!</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
@@ -6078,16 +6338,10 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="C17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C17)</f>
-        <v>#REF!</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
@@ -6096,16 +6350,10 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C18)</f>
-        <v>#REF!</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
@@ -6114,16 +6362,10 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C19)</f>
-        <v>#REF!</v>
-      </c>
+        <v>607</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
@@ -6132,109 +6374,117 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B20)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C20)</f>
-        <v>#REF!</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" s="15" t="e">
-        <f>C14+C15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D21" s="15" t="e">
-        <f>D14+D15</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B21" s="33" t="s">
+        <v>609</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
+      <c r="B22" s="33" t="s">
+        <v>610</v>
+      </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="C23" s="14">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="14">
+        <f>SUM(D24:D26)</f>
+        <v>0</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C24" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B24)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D24" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C24)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B24" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="C25" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B25)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D25" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C25)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B25" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="C26" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B26)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D26" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C26)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="B26" s="33" t="s">
+        <v>614</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>389</v>
+        <v>625</v>
       </c>
       <c r="C27" s="15" t="e">
-        <f>SUM(C24:C26)</f>
+        <f>C14+C15+C23</f>
         <v>#REF!</v>
       </c>
       <c r="D27" s="15" t="e">
-        <f>SUM(D24:D26)</f>
+        <f>D14+D15+D23</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B30)</f>
@@ -6247,7 +6497,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B31)</f>
@@ -6260,7 +6510,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B32)</f>
@@ -6271,142 +6521,284 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="C33" s="14">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>626</v>
+      </c>
+      <c r="C33" s="15" t="e">
+        <f>SUM(C30:C32)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D33" s="15" t="e">
+        <f>SUM(D30:D32)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="C39" s="15">
+        <f>SUM(C36:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="15">
+        <f>SUM(D36:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C42" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B42)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D42" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C42)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C43" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B43)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D43" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C43)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C44" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B44)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D44" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C44)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" s="14">
         <f>SUM(tblBfOutrosExtra[Pagamentos])</f>
         <v>0</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D45" s="14">
         <f>SUM(tblBfOutrosExtraAnterior[Pagamentos])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="17" t="s">
-        <v>394</v>
-      </c>
-      <c r="C34" s="15" t="e">
-        <f>SUM(C30:C33)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D34" s="15" t="e">
-        <f>SUM(D30:D33)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B37)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C37)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C38" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D38" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C38)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C39" s="15" t="e">
-        <f>SUM(C37:C38)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D39" s="15" t="e">
-        <f>SUM(D37:D38)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="11" t="s">
-        <v>398</v>
-      </c>
-      <c r="C41" s="16" t="e">
-        <f>SUM(C39,C34,C27,C21)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D41" s="16" t="e">
-        <f>SUM(D39,D34,D27,D21)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="54" t="str">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="C46" s="15" t="e">
+        <f>SUM(C42:C45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D46" s="15" t="e">
+        <f>SUM(D42:D45)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="32"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B49)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D49" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C49)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C51" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B51)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D51" s="14" t="e">
+        <f>SUMIFS(#REF!,#REF!,'BF Q0B'!C51)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="C52" s="15" t="e">
+        <f>SUM(C49:C51)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D52" s="15" t="e">
+        <f>SUM(D49:D51)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="C54" s="16" t="e">
+        <f>SUM(C52,C46,C33,C27,C39)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D54" s="16" t="e">
+        <f>SUM(D52,D46,D33,D27,D39)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="str">
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="str">
         <f>UPPER(assContabilistaNome)</f>
         <v>EVERTON DA ROSA</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C59" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
         <v>JOÃO EDÉCIO GRAEF</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="3" t="str">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="str">
         <f>assContabilistaCargo</f>
         <v>Contador CRC nº RS-076595/O-3</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C60" s="3" t="str">
         <f>assGestorCargo</f>
         <v>Prefeito Municipal</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="str">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="str">
         <f>"CPF nº "&amp;assContabilistaCPF</f>
         <v>CPF nº 962.670.200-10</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C61" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
         <v>CPF nº 189.955.190.53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B55:D55"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
@@ -6419,10 +6811,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6455,12 +6847,12 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6470,339 +6862,381 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="58" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="34" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>406</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="C13" s="13" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D13" s="13" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E13" s="13" t="e">
+        <v>605</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13">
         <f>C13-D13</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F13" s="13" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G13" s="13" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E13)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H13" s="13" t="e">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13">
         <f>F13-G13</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C14" s="13" t="e">
-        <f>SUM(C15:C19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D14" s="13" t="e">
-        <f>SUM(D15:D19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E14" s="13" t="e">
-        <f t="shared" ref="E14:E20" si="0">C14-D14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F14" s="13" t="e">
-        <f>SUM(F15:F19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G14" s="13" t="e">
-        <f>SUM(G15:G19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="13" t="e">
-        <f t="shared" ref="H14:H20" si="1">F14-G14</f>
-        <v>#REF!</v>
+        <v>606</v>
+      </c>
+      <c r="C14" s="13">
+        <f>SUM(C15:C21)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="13">
+        <f t="shared" ref="D14:H14" si="0">SUM(D15:D21)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" ref="E14:E26" si="1">C14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" ref="H14:H26" si="2">F14-G14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C15" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="14" t="e">
+        <v>360</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="C16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E16)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="14" t="e">
+        <v>361</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E17" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G17" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E17)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="14" t="e">
+        <v>362</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E18" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G18" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H18" s="14" t="e">
+        <v>607</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!B19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E19" s="14" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G19" s="14" t="e">
-        <f>SUMIFS(#REF!,#REF!,'BF Q1'!E19)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="14" t="e">
+        <v>608</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="C20" s="16" t="e">
-        <f>C13+C14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D20" s="16" t="e">
-        <f t="shared" ref="D20" si="2">D13+D14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E20" s="16" t="e">
-        <f t="shared" si="0"/>
-        <v>#REF!</v>
-      </c>
-      <c r="F20" s="16" t="e">
-        <f>F13+F14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G20" s="16" t="e">
-        <f t="shared" ref="G20" si="3">G13+G14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="16" t="e">
+      <c r="B20" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
         <f t="shared" si="1"/>
-        <v>#REF!</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="54" t="str">
+      <c r="B21" s="10" t="s">
+        <v>610</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="35" t="s">
+        <v>611</v>
+      </c>
+      <c r="C22" s="13">
+        <f>SUM(C23:C25)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <f t="shared" ref="D22:H22" si="3">SUM(D23:D25)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>613</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="C26" s="16">
+        <f>C13+C14+C22</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:H26" si="4">D13+D14+D22</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="str">
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="str">
         <f>UPPER(assContabilistaNome)</f>
         <v>EVERTON DA ROSA</v>
       </c>
-      <c r="G25" s="3" t="str">
+      <c r="G31" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
         <v>JOÃO EDÉCIO GRAEF</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="str">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="str">
         <f>assContabilistaCargo</f>
         <v>Contador CRC nº RS-076595/O-3</v>
       </c>
-      <c r="G26" s="3" t="str">
+      <c r="G32" s="3" t="str">
         <f>assGestorCargo</f>
         <v>Prefeito Municipal</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="str">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="str">
         <f>"CPF nº "&amp;assContabilistaCPF</f>
         <v>CPF nº 962.670.200-10</v>
       </c>
-      <c r="G27" s="3" t="str">
+      <c r="G33" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
         <v>CPF nº 189.955.190.53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B27:H27"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B10:B12"/>
@@ -6821,8 +7255,8 @@
   </sheetPr>
   <dimension ref="B2:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6855,7 +7289,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -6868,40 +7302,40 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
-        <v>409</v>
+      <c r="B10" s="58" t="s">
+        <v>397</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>402</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C12" s="13" t="e">
         <f>SUM(C13:C20)</f>
@@ -6943,7 +7377,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B14)</f>
@@ -6964,7 +7398,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B15)</f>
@@ -6985,7 +7419,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B16)</f>
@@ -7006,7 +7440,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B17)</f>
@@ -7027,7 +7461,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B18)</f>
@@ -7048,7 +7482,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B19)</f>
@@ -7069,7 +7503,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B20)</f>
@@ -7097,7 +7531,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUM(C23:C27)</f>
@@ -7118,7 +7552,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B23)</f>
@@ -7139,7 +7573,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B24)</f>
@@ -7160,7 +7594,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B25)</f>
@@ -7181,7 +7615,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B26)</f>
@@ -7202,7 +7636,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B27)</f>
@@ -7230,7 +7664,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C29" s="13" t="e">
         <f>C12+C22</f>
@@ -7258,7 +7692,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="C31" s="13">
         <f>C32+C35</f>
@@ -7279,7 +7713,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C32" s="14">
         <f>SUM(C33:C34)</f>
@@ -7300,7 +7734,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -7312,7 +7746,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -7324,7 +7758,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C35" s="14">
         <f>SUM(C36:C37)</f>
@@ -7345,7 +7779,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -7357,7 +7791,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7376,7 +7810,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="35" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C39" s="13" t="e">
         <f>C29+C31</f>
@@ -7397,7 +7831,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C40" s="14" t="e">
         <f>IF(C39&gt;'BO Q0B'!C34,0,'BO Q0B'!C34-'BO Q0A'!C39)</f>
@@ -7415,7 +7849,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="27" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C41" s="16" t="e">
         <f>C39+C40</f>
@@ -7436,7 +7870,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="C42" s="13" t="e">
         <f>SUM(C43:C45)</f>
@@ -7457,7 +7891,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B43)</f>
@@ -7478,7 +7912,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="e">
@@ -7496,14 +7930,14 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="E45" s="62" t="e">
+      <c r="E45" s="54" t="e">
         <f>D45</f>
         <v>#REF!</v>
       </c>
@@ -7513,14 +7947,14 @@
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="54" t="str">
+      <c r="B46" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="str">
@@ -7604,7 +8038,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -7617,52 +8051,52 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="58" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>431</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>432</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="H10" s="38" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>438</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="H11" s="39" t="s">
         <v>442</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>444</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>445</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="G10" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="39" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>450</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>451</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>452</v>
-      </c>
-      <c r="G11" s="39" t="s">
-        <v>453</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C12" s="13" t="e">
         <f>SUM(C13:C15)</f>
@@ -7691,7 +8125,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B13)</f>
@@ -7720,7 +8154,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B14)</f>
@@ -7749,7 +8183,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B15)</f>
@@ -7787,7 +8221,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C17" s="13" t="e">
         <f>SUM(C18:C20)</f>
@@ -7845,7 +8279,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B19)</f>
@@ -7874,7 +8308,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B20)</f>
@@ -7912,7 +8346,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUMIFS(#REF!,#REF!,"99*",#REF!,99,#REF!,999)</f>
@@ -7941,7 +8375,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C24" s="13" t="e">
         <f>C12+C17+C22</f>
@@ -7979,7 +8413,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C26" s="13">
         <f>C27+C30</f>
@@ -8008,7 +8442,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="C27" s="14">
         <f>SUM(C28:C29)</f>
@@ -8037,7 +8471,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -8051,7 +8485,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -8065,7 +8499,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C30" s="14">
         <f>SUM(C31:C32)</f>
@@ -8094,7 +8528,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -8108,7 +8542,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -8131,7 +8565,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C34" s="13" t="e">
         <f>C24+C26</f>
@@ -8160,7 +8594,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>IF(C34&lt;'BO Q0A'!C39,'BO Q0A'!C39-'BO Q0B'!C34,0)</f>
@@ -8186,7 +8620,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C36" s="16" t="e">
         <f>C34+C35</f>
@@ -8215,7 +8649,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="C37" s="13" t="e">
         <f>SUMIFS(#REF!,#REF!,"99*",#REF!,99,#REF!,997)</f>
@@ -8231,16 +8665,16 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" s="54" t="str">
+      <c r="B38" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="str">
@@ -8322,12 +8756,12 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8337,61 +8771,61 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60" t="s">
-        <v>478</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>481</v>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="40" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
+        <v>465</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="39" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C13" s="13" t="e">
         <f>SUM(C14:C16)</f>
@@ -8420,7 +8854,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B14)</f>
@@ -8449,7 +8883,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B15)</f>
@@ -8478,7 +8912,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B16)</f>
@@ -8516,7 +8950,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C18" s="13" t="e">
         <f>SUM(C19:C21)</f>
@@ -8574,7 +9008,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B20)</f>
@@ -8603,7 +9037,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B21)</f>
@@ -8641,7 +9075,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C23" s="16" t="e">
         <f>C13+C18</f>
@@ -8669,16 +9103,16 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="str">
+      <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
@@ -8751,12 +9185,12 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"Fonte: MS Excel; Órgão emissor: "&amp;paramOrgaoEmissor&amp;"; Data de emissão: "&amp;TEXT(NOW(),"dd/mm/aaaa, \à\s hh:mm")</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C4" s="1">
         <f>DATE(YEAR(paramDataBase),1,1)</f>
@@ -8810,12 +9244,12 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -8825,54 +9259,54 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="58" t="s">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>468</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="58"/>
+      <c r="C11" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="58"/>
+      <c r="C12" s="39" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="G12" s="39" t="s">
         <v>475</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60" t="s">
-        <v>479</v>
-      </c>
-      <c r="F10" s="60" t="s">
-        <v>480</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>477</v>
-      </c>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="57"/>
-      <c r="C12" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="C13" s="13" t="e">
         <f>SUM(C14:C16)</f>
@@ -8897,7 +9331,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B14)</f>
@@ -8922,7 +9356,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B15)</f>
@@ -8947,7 +9381,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B16)</f>
@@ -8980,7 +9414,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C18" s="13" t="e">
         <f>SUM(C19:C21)</f>
@@ -9030,7 +9464,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B20)</f>
@@ -9055,7 +9489,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B21)</f>
@@ -9088,7 +9522,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C23" s="16" t="e">
         <f>C13+C18</f>
@@ -9112,15 +9546,15 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="str">
+      <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
@@ -9207,7 +9641,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -9221,7 +9655,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -9232,7 +9666,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C11" s="13" t="e">
         <f>SUM(C12:C21)</f>
@@ -9245,7 +9679,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B12)</f>
@@ -9258,7 +9692,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B13)</f>
@@ -9271,7 +9705,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B14)</f>
@@ -9284,7 +9718,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B15)</f>
@@ -9297,7 +9731,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B16)</f>
@@ -9310,7 +9744,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B17)</f>
@@ -9323,7 +9757,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B18)</f>
@@ -9336,7 +9770,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B19)</f>
@@ -9349,7 +9783,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>'DFC Q1'!C17</f>
@@ -9362,7 +9796,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B21)+SUM(#REF!)</f>
@@ -9375,7 +9809,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUM(C23:C26)</f>
@@ -9388,7 +9822,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>'DFC Q2'!C39</f>
@@ -9401,7 +9835,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>'DFC Q3'!C14</f>
@@ -9414,7 +9848,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>'DFC Q1'!C27</f>
@@ -9427,14 +9861,14 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>C11-C22</f>
@@ -9452,7 +9886,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>19</v>
@@ -9463,7 +9897,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C30" s="13" t="e">
         <f>SUM(C31:C33)</f>
@@ -9476,7 +9910,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B31)</f>
@@ -9489,7 +9923,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B32)</f>
@@ -9502,7 +9936,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="C33" s="14">
         <f>SUM(tblDFCOutrosIngressosInvestimento[Valor])</f>
@@ -9515,7 +9949,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C34" s="13" t="e">
         <f>SUM(C35:C37)</f>
@@ -9528,7 +9962,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B35)</f>
@@ -9541,7 +9975,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B36)</f>
@@ -9554,7 +9988,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B37)</f>
@@ -9567,7 +10001,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C38" s="15" t="e">
         <f>C30-C34</f>
@@ -9585,7 +10019,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>19</v>
@@ -9596,7 +10030,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C41" s="13" t="e">
         <f>SUM(C42:C44)</f>
@@ -9609,7 +10043,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B42)</f>
@@ -9622,7 +10056,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B43)</f>
@@ -9635,7 +10069,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="C44" s="14">
         <f>SUM(tblDFCOutrosIngressosFinanciamento[Valor])</f>
@@ -9648,7 +10082,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C45" s="13" t="e">
         <f>SUM(C46:C47)</f>
@@ -9661,7 +10095,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="C46" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B46)</f>
@@ -9674,7 +10108,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
@@ -9685,7 +10119,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C48" s="15" t="e">
         <f>C41-C45</f>
@@ -9703,7 +10137,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>19</v>
@@ -9714,7 +10148,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C51" s="13" t="e">
         <f>C27+C38+C48</f>
@@ -9727,7 +10161,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C52" s="14" t="e">
         <f>SUM(#REF!)</f>
@@ -9740,7 +10174,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="52" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C53" s="41" t="e">
         <f>SUM(#REF!)</f>
@@ -9752,12 +10186,12 @@
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="54" t="str">
+      <c r="B54" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="str">
@@ -9839,12 +10273,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -9855,7 +10289,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -9866,7 +10300,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUM(C12:C14)</f>
@@ -9879,7 +10313,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B12)</f>
@@ -9892,7 +10326,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B13)</f>
@@ -9905,7 +10339,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B14)</f>
@@ -9918,7 +10352,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,"A",#REF!,"intra")</f>
@@ -9931,7 +10365,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B16)</f>
@@ -9944,7 +10378,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>C11+C15+C16</f>
@@ -9962,7 +10396,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>19</v>
@@ -9973,7 +10407,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUM(C21:C24)</f>
@@ -9986,7 +10420,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B21)</f>
@@ -9999,7 +10433,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B22)</f>
@@ -10012,7 +10446,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B23)</f>
@@ -10025,7 +10459,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B24)</f>
@@ -10038,7 +10472,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B25)</f>
@@ -10051,7 +10485,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B26)</f>
@@ -10064,7 +10498,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>C20+C25+C26</f>
@@ -10076,12 +10510,12 @@
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="str">
+      <c r="B28" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="str">
@@ -10163,12 +10597,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -10179,7 +10613,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -10190,7 +10624,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B11)</f>
@@ -10203,7 +10637,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B12)</f>
@@ -10216,7 +10650,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B13)</f>
@@ -10229,7 +10663,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B14)</f>
@@ -10242,7 +10676,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B15)</f>
@@ -10255,7 +10689,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B16)</f>
@@ -10268,7 +10702,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B17)</f>
@@ -10281,7 +10715,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B18)</f>
@@ -10294,7 +10728,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B19)</f>
@@ -10307,7 +10741,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B20)</f>
@@ -10320,7 +10754,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B21)</f>
@@ -10333,7 +10767,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B22)</f>
@@ -10346,7 +10780,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B23)</f>
@@ -10359,7 +10793,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B24)</f>
@@ -10372,7 +10806,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B25)</f>
@@ -10385,7 +10819,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B26)</f>
@@ -10398,7 +10832,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B27)</f>
@@ -10411,7 +10845,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C28" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B28)</f>
@@ -10424,7 +10858,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C29" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B29)</f>
@@ -10437,7 +10871,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B30)</f>
@@ -10450,7 +10884,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B31)</f>
@@ -10463,7 +10897,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B32)</f>
@@ -10476,7 +10910,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C33" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B33)</f>
@@ -10489,7 +10923,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="C34" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B34)</f>
@@ -10502,7 +10936,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B35)</f>
@@ -10515,7 +10949,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B36)</f>
@@ -10528,7 +10962,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B37)</f>
@@ -10541,7 +10975,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B38)</f>
@@ -10554,7 +10988,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="C39" s="15" t="e">
         <f>SUM(C11:C38)</f>
@@ -10566,12 +11000,12 @@
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="54" t="str">
+      <c r="B40" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="str">
@@ -10620,7 +11054,7 @@
   </sheetPr>
   <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
@@ -10653,12 +11087,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -10669,7 +11103,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>19</v>
@@ -10680,7 +11114,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B11)</f>
@@ -10693,7 +11127,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B12)</f>
@@ -10706,7 +11140,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B13)</f>
@@ -10719,7 +11153,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="C14" s="15" t="e">
         <f>SUM(C11:C13)</f>
@@ -10731,12 +11165,12 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="54" t="str">
+      <c r="B15" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
@@ -10793,24 +11227,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B1" s="46" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="C1" s="46" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="E1" s="46" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="B2" s="48" t="e">
         <f>'BP Q0'!C30</f>
@@ -10828,14 +11262,14 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="B3" s="49" t="e">
         <f>'BP Q0'!D14</f>
         <v>#REF!</v>
       </c>
       <c r="C3" s="49" t="e">
-        <f>'BF Q0A'!C37</f>
+        <f>'BF Q0A'!C49</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="49"/>
@@ -10846,14 +11280,14 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B4" s="50" t="e">
         <f>'BP Q0'!C14</f>
         <v>#REF!</v>
       </c>
       <c r="C4" s="50" t="e">
-        <f>'BF Q0B'!C37</f>
+        <f>'BF Q0B'!C49</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="50"/>
@@ -10864,7 +11298,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="B5" s="49" t="e">
         <f>'BP Q0'!C61</f>
@@ -10882,7 +11316,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="B6" s="50" t="e">
         <f>'BP Q1'!C12-'BP Q1'!C17</f>
@@ -10900,7 +11334,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="B7" s="49" t="e">
         <f>'BP Q0'!C25</f>
@@ -10918,7 +11352,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="B8" s="50" t="e">
         <f>'DVP Q0'!C35</f>
@@ -10936,7 +11370,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B9" s="49" t="e">
         <f>'DVP Q0'!C20</f>
@@ -10954,7 +11388,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="B10" s="50" t="e">
         <f>'DVP Q0'!C33</f>
@@ -10972,11 +11406,11 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>592</v>
-      </c>
-      <c r="B11" s="49" t="e">
-        <f>'BF Q0A'!C21</f>
-        <v>#REF!</v>
+        <v>580</v>
+      </c>
+      <c r="B11" s="49">
+        <f>'BF Q0A'!C27</f>
+        <v>0</v>
       </c>
       <c r="C11" s="49" t="e">
         <f>'BO Q0A'!E29</f>
@@ -10990,10 +11424,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="B12" s="50" t="e">
-        <f>'BF Q0B'!C21</f>
+        <f>'BF Q0B'!C27</f>
         <v>#REF!</v>
       </c>
       <c r="C12" s="50" t="e">
@@ -11008,14 +11442,14 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="B13" s="49" t="e">
-        <f>'BF Q0A'!C41</f>
+        <f>'BF Q0A'!C54</f>
         <v>#REF!</v>
       </c>
       <c r="C13" s="49" t="e">
-        <f>'BF Q0B'!C41</f>
+        <f>'BF Q0B'!C54</f>
         <v>#REF!</v>
       </c>
       <c r="D13" s="49"/>
@@ -11026,10 +11460,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="B14" s="50" t="e">
-        <f>'BF Q0B'!C30</f>
+        <f>'BF Q0B'!C42</f>
         <v>#REF!</v>
       </c>
       <c r="C14" s="50" t="e">
@@ -11044,10 +11478,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="B15" s="49" t="e">
-        <f>'BF Q0B'!C31</f>
+        <f>'BF Q0B'!C43</f>
         <v>#REF!</v>
       </c>
       <c r="C15" s="49" t="e">
@@ -11062,10 +11496,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B16" s="50" t="e">
-        <f>'BF Q0A'!C30</f>
+        <f>'BF Q0A'!C42</f>
         <v>#REF!</v>
       </c>
       <c r="C16" s="50" t="e">
@@ -11080,10 +11514,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="B17" s="49" t="e">
-        <f>'BF Q0A'!C31</f>
+        <f>'BF Q0A'!C43</f>
         <v>#REF!</v>
       </c>
       <c r="C17" s="49" t="e">
@@ -11098,7 +11532,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B18" s="50" t="e">
         <f>ROUND('DFC Q0'!C52+'DFC Q0'!C27+'DFC Q0'!C38+'DFC Q0'!C48,2)</f>
@@ -11116,7 +11550,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B19" s="49" t="e">
         <f>'DFC Q0'!C52</f>
@@ -11134,7 +11568,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B20" s="50" t="e">
         <f>'DFC Q0'!C51</f>
@@ -11152,7 +11586,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="B21" s="49" t="e">
         <f>'BP Q0'!C30</f>
@@ -11170,14 +11604,14 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B22" s="50" t="e">
         <f>'BP Q0'!C42+'BP Q0'!C52</f>
         <v>#REF!</v>
       </c>
       <c r="C22" s="50" t="e">
-        <f>'BP Q1'!C19-('BF Q0A'!C30+'BO Q1'!H23)</f>
+        <f>'BP Q1'!C19-('BF Q0A'!C42+'BO Q1'!H23)</f>
         <v>#REF!</v>
       </c>
       <c r="D22" s="50"/>
@@ -11265,30 +11699,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="E2" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="G2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11408,65 +11842,65 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="E1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="H1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="K1" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F2" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="H2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="K2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="L2" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -12251,12 +12685,12 @@
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="54" t="str">
+      <c r="B66" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="str">
@@ -12480,12 +12914,12 @@
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="str">
+      <c r="B22" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="str">
@@ -12702,7 +13136,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B21)</f>
@@ -12740,12 +13174,12 @@
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="str">
+      <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="str">
@@ -12849,10 +13283,10 @@
       <c r="C8" s="4"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="56"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="12" t="s">
         <v>19</v>
       </c>
@@ -14237,10 +14671,10 @@
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="C97" s="56"/>
+      <c r="C97" s="57"/>
       <c r="D97" s="16" t="e">
         <f>SUM(D11:D96)</f>
         <v>#REF!</v>
@@ -14251,13 +14685,13 @@
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B98" s="54" t="str">
+      <c r="B98" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
-      </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="54"/>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+      </c>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="3" t="str">
@@ -14767,7 +15201,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 18/04/2024, às 14:54</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>

--- a/tpl/dcasp v2024.01.99.xlsx
+++ b/tpl/dcasp v2024.01.99.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everton\Desktop\Sistemas\rptgen\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C272734-B03A-497A-96D8-6F1E4AA45E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B417CF-5B0A-457D-A4CB-2ABE3342A4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="12" activeTab="15" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros Manuais" sheetId="1" r:id="rId1"/>
@@ -144,9 +144,6 @@
     <t>Assinatura Contabilista: CPF</t>
   </si>
   <si>
-    <t>João Edécio Graef</t>
-  </si>
-  <si>
     <t>Prefeito Municipal</t>
   </si>
   <si>
@@ -1875,9 +1872,6 @@
     <t>DFC: caixa inicial x caixa final ano anterior</t>
   </si>
   <si>
-    <t>189.955.190.53</t>
-  </si>
-  <si>
     <t>Caixa Líquido Gerado</t>
   </si>
   <si>
@@ -2014,6 +2008,12 @@
   </si>
   <si>
     <t>Outras Movimentações Financeiras Concedidas</t>
+  </si>
+  <si>
+    <t>Eduardo Maahs Marasca</t>
+  </si>
+  <si>
+    <t>025.683.290-09</t>
   </si>
 </sst>
 </file>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2691581A-1C5D-436D-8A00-3D7C6FD59808}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2873,7 +2873,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -2881,7 +2881,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
@@ -2889,7 +2889,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>589</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -2913,15 +2913,15 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
         <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2973,12 +2973,12 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -2989,21 +2989,21 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="31" t="e">
         <f>SUM(C12,C13,C14,C15,C16,C17,C18)</f>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C12" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B12)</f>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B13)</f>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C14" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B14)</f>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B15)</f>
@@ -3088,7 +3088,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B16)</f>
@@ -3105,7 +3105,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C17" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B17)</f>
@@ -3122,7 +3122,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C18" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B18)</f>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="30" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="31" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q5'!B19)</f>
@@ -3156,7 +3156,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="16" t="e">
         <f>C11+C19</f>
@@ -3174,7 +3174,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D25" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="D27" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -3272,15 +3272,15 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>'DVP Q1'!C16</f>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>'DVP Q1'!C24</f>
@@ -3318,7 +3318,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>'DVP Q1'!C31</f>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>'DVP Q1'!C43</f>
@@ -3344,7 +3344,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>'DVP Q1'!C56</f>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>'DVP Q1'!C65</f>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>'DVP Q1'!C75</f>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C20" s="15" t="e">
         <f>SUM(C13:C19)</f>
@@ -3401,7 +3401,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -3413,7 +3413,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>'DVP Q2'!C17</f>
@@ -3426,7 +3426,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>'DVP Q2'!C27</f>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>'DVP Q2'!C34</f>
@@ -3452,7 +3452,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>'DVP Q2'!C46</f>
@@ -3465,7 +3465,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="14" t="e">
         <f>'DVP Q2'!C58</f>
@@ -3478,7 +3478,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="14" t="e">
         <f>'DVP Q2'!C67</f>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>'DVP Q2'!C73</f>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>'DVP Q2'!C80</f>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>'DVP Q2'!C92</f>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="15" t="e">
         <f>SUM(C24:C32)</f>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35" s="16" t="e">
         <f>C20-C33</f>
@@ -3562,7 +3562,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C40" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
       </c>
       <c r="C42" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -3647,12 +3647,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -3664,15 +3664,15 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -3684,7 +3684,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B13)</f>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B14)</f>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B15)</f>
@@ -3723,7 +3723,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C16" s="15" t="e">
         <f>SUM(C13:C15)</f>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B20)</f>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B21)</f>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B22)</f>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B23)</f>
@@ -3805,7 +3805,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C24" s="15" t="e">
         <f>SUM(C20:C23)</f>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C28" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B28)</f>
@@ -3848,7 +3848,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C29" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B29)</f>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B30)</f>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="15" t="e">
         <f>SUM(C28:C30)</f>
@@ -3892,7 +3892,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B35)</f>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B36)</f>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B37)</f>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B38)</f>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B39)</f>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C40" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B40)</f>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C41" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B41)</f>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B42)</f>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43" s="15" t="e">
         <f>SUM(C35:C42)</f>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C47" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B47)</f>
@@ -4051,7 +4051,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C48" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B48)</f>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C49" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B49)</f>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C50" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B50)</f>
@@ -4090,7 +4090,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C51" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B51)</f>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C52" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B52)</f>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C53" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B53)</f>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B54)</f>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C55" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B55)</f>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C56" s="15" t="e">
         <f>SUM(C47:C55)</f>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C60" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B60)</f>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C61" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B61)</f>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C62" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B62)</f>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C63" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B63)</f>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C64" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B64)</f>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C65" s="15" t="e">
         <f>SUM(C60:C64)</f>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -4280,7 +4280,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C69" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B69)</f>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B70)</f>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B71)</f>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B72)</f>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B73)</f>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C74" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q1'!B74)</f>
@@ -4358,7 +4358,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C75" s="15" t="e">
         <f>SUM(C69:C74)</f>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C77" s="16" t="e">
         <f>SUM(C75,C65,C56,C43,C31,C24,C16)</f>
@@ -4390,7 +4390,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -4402,7 +4402,7 @@
       </c>
       <c r="C82" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="C84" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -4475,12 +4475,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -4492,15 +4492,15 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -4512,7 +4512,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B13)</f>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B14)</f>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B15)</f>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B16)</f>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>SUM(C13:C16)</f>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B21)</f>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B22)</f>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B23)</f>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B24)</f>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B25)</f>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B26)</f>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>SUM(C21:C26)</f>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -4702,7 +4702,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B31)</f>
@@ -4715,7 +4715,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B32)</f>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C33" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B33)</f>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C34" s="15" t="e">
         <f>SUM(C31:C33)</f>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B38)</f>
@@ -4784,7 +4784,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B39)</f>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C40" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B40)</f>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C41" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B41)</f>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B42)</f>
@@ -4836,7 +4836,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B43)</f>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C44" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B44)</f>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C45" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B45)</f>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C46" s="15" t="e">
         <f>SUM(C38:C45)</f>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B50)</f>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B51)</f>
@@ -4931,7 +4931,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C52" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B52)</f>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C53" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B53)</f>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C54" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B54)</f>
@@ -4970,7 +4970,7 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C55" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B55)</f>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C56" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B56)</f>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C57" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B57)</f>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="17" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C58" s="15" t="e">
         <f>SUM(C50:C57)</f>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B62)</f>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C63" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B63)</f>
@@ -5065,7 +5065,7 @@
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C64" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B64)</f>
@@ -5078,7 +5078,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C65" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B65)</f>
@@ -5091,7 +5091,7 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C66" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B66)</f>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C67" s="15" t="e">
         <f>SUM(C62:C66)</f>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C71" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B71)</f>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B72)</f>
@@ -5160,7 +5160,7 @@
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C73" s="15" t="e">
         <f>SUM(C71:C72)</f>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -5190,7 +5190,7 @@
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C77" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B77)</f>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C78" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B78)</f>
@@ -5216,7 +5216,7 @@
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C79" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B79)</f>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C80" s="15" t="e">
         <f>SUM(C77:C79)</f>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -5259,7 +5259,7 @@
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C84" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B84)</f>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C85" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B85)</f>
@@ -5285,7 +5285,7 @@
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C86" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B86)</f>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C87" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B87)</f>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C88" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B88)</f>
@@ -5324,7 +5324,7 @@
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C89" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B89)</f>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C90" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B90)</f>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C91" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DVP Q2'!B91)</f>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C92" s="15" t="e">
         <f>SUM(C84:C91)</f>
@@ -5381,7 +5381,7 @@
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C94" s="16" t="e">
         <f>SUM(C92,C80,C73,C67,C58,C46,C34,C27,C17)</f>
@@ -5395,7 +5395,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -5407,7 +5407,7 @@
       </c>
       <c r="C99" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="C101" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
@@ -5497,15 +5497,15 @@
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -5517,14 +5517,14 @@
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C14" s="14">
         <f>'BF Q1'!E13</f>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(C16:C22)</f>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" s="14">
         <f>'BF Q1'!E15</f>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="14">
         <f>'BF Q1'!E16</f>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="14">
         <f>'BF Q1'!E17</f>
@@ -5614,7 +5614,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C19" s="14">
         <f>'BF Q1'!E18</f>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C20" s="14">
         <f>'BF Q1'!E19</f>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C21" s="14">
         <f>'BF Q1'!E20</f>
@@ -5668,7 +5668,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C22" s="14">
         <f>'BF Q1'!E21</f>
@@ -5686,7 +5686,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C23" s="14">
         <f>SUM(C24:C26)</f>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C24" s="14">
         <f>'BF Q1'!E23</f>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C25" s="14">
         <f>'BF Q1'!E24</f>
@@ -5740,7 +5740,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C26" s="14">
         <f>'BF Q1'!E25</f>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C27" s="15">
         <f>C14+C15+C23</f>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B30)</f>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B31)</f>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B32)</f>
@@ -5852,7 +5852,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C33" s="15" t="e">
         <f>SUM(C30:C32)</f>
@@ -5880,7 +5880,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B36)</f>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B37)</f>
@@ -5928,7 +5928,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B38)</f>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C39" s="15" t="e">
         <f>SUM(C36:C38)</f>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B42)</f>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B43)</f>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C44" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B44)</f>
@@ -6025,7 +6025,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C45" s="14">
         <f>SUM(tblBfOutrosExtra[Recebimentos])</f>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C46" s="15" t="e">
         <f>SUM(C42:C45)</f>
@@ -6056,14 +6056,14 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C49" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B49)</f>
@@ -6076,14 +6076,14 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0A'!B51)</f>
@@ -6096,7 +6096,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C52" s="15" t="e">
         <f>SUM(C49:C51)</f>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C54" s="16" t="e">
         <f>SUM(C52,C46,C33,C27,C39)</f>
@@ -6128,7 +6128,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C59" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -6160,7 +6160,7 @@
       </c>
       <c r="C61" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -6216,7 +6216,7 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -6243,10 +6243,10 @@
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -6256,7 +6256,7 @@
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -6278,7 +6278,7 @@
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B14)</f>
@@ -6308,7 +6308,7 @@
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C15" s="14">
         <f>SUM(C16:C22)</f>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -6350,7 +6350,7 @@
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C23" s="14">
         <f>SUM(C24:C26)</f>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -6440,7 +6440,7 @@
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -6452,14 +6452,14 @@
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="17" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>C14+C15+C23</f>
@@ -6477,14 +6477,14 @@
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B30)</f>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B31)</f>
@@ -6510,7 +6510,7 @@
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B32)</f>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="17" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C33" s="15" t="e">
         <f>SUM(C30:C32)</f>
@@ -6541,7 +6541,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -6565,7 +6565,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -6589,7 +6589,7 @@
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="17" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C39" s="15">
         <f>SUM(C36:C38)</f>
@@ -6612,14 +6612,14 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B42)</f>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B43)</f>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C44" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B44)</f>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C45" s="14">
         <f>SUM(tblBfOutrosExtra[Pagamentos])</f>
@@ -6671,7 +6671,7 @@
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C46" s="15" t="e">
         <f>SUM(C42:C45)</f>
@@ -6689,14 +6689,14 @@
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C49" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B49)</f>
@@ -6709,14 +6709,14 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C51" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BF Q0B'!B51)</f>
@@ -6729,7 +6729,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C52" s="15" t="e">
         <f>SUM(C49:C51)</f>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C54" s="16" t="e">
         <f>SUM(C52,C46,C33,C27,C39)</f>
@@ -6761,7 +6761,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6773,7 +6773,7 @@
       </c>
       <c r="C59" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="C61" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -6813,7 +6813,7 @@
   </sheetPr>
   <dimension ref="B2:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -6847,12 +6847,12 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6863,15 +6863,15 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="58"/>
       <c r="E10" s="58"/>
       <c r="F10" s="58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
@@ -6879,48 +6879,48 @@
     <row r="11" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="58"/>
       <c r="C12" s="34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -6937,14 +6937,14 @@
     </row>
     <row r="14" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="35" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C14" s="13">
         <f>SUM(C15:C21)</f>
         <v>0</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:H14" si="0">SUM(D15:D21)</f>
+        <f t="shared" ref="D14:G14" si="0">SUM(D15:D21)</f>
         <v>0</v>
       </c>
       <c r="E14" s="13">
@@ -6966,7 +6966,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -7051,7 +7051,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
@@ -7068,7 +7068,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
@@ -7085,14 +7085,14 @@
     </row>
     <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C22" s="13">
         <f>SUM(C23:C25)</f>
         <v>0</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" ref="D22:H22" si="3">SUM(D23:D25)</f>
+        <f t="shared" ref="D22:G22" si="3">SUM(D23:D25)</f>
         <v>0</v>
       </c>
       <c r="E22" s="13">
@@ -7114,7 +7114,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
@@ -7131,7 +7131,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
@@ -7148,7 +7148,7 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -7165,14 +7165,14 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C26" s="16">
         <f>C13+C14+C22</f>
         <v>0</v>
       </c>
       <c r="D26" s="16">
-        <f t="shared" ref="D26:H26" si="4">D13+D14+D22</f>
+        <f t="shared" ref="D26:G26" si="4">D13+D14+D22</f>
         <v>0</v>
       </c>
       <c r="E26" s="16">
@@ -7195,7 +7195,7 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -7211,7 +7211,7 @@
       </c>
       <c r="G31" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="G33" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -7289,7 +7289,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
@@ -7303,39 +7303,39 @@
     </row>
     <row r="10" spans="2:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>397</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>400</v>
-      </c>
       <c r="F10" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="F11" s="39" t="s">
         <v>401</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" s="13" t="e">
         <f>SUM(C13:C20)</f>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B13)</f>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B14)</f>
@@ -7398,7 +7398,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B15)</f>
@@ -7419,7 +7419,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B16)</f>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B17)</f>
@@ -7461,7 +7461,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B18)</f>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B19)</f>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B20)</f>
@@ -7531,7 +7531,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUM(C23:C27)</f>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B23)</f>
@@ -7573,7 +7573,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B24)</f>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B25)</f>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B26)</f>
@@ -7636,7 +7636,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B27)</f>
@@ -7664,7 +7664,7 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C29" s="13" t="e">
         <f>C12+C22</f>
@@ -7692,7 +7692,7 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C31" s="13">
         <f>C32+C35</f>
@@ -7713,7 +7713,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C32" s="14">
         <f>SUM(C33:C34)</f>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
@@ -7746,7 +7746,7 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -7758,7 +7758,7 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C35" s="14">
         <f>SUM(C36:C37)</f>
@@ -7779,7 +7779,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -7791,7 +7791,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -7810,7 +7810,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C39" s="13" t="e">
         <f>C29+C31</f>
@@ -7831,7 +7831,7 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="37" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C40" s="14" t="e">
         <f>IF(C39&gt;'BO Q0B'!C34,0,'BO Q0B'!C34-'BO Q0A'!C39)</f>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C41" s="16" t="e">
         <f>C39+C40</f>
@@ -7870,7 +7870,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C42" s="13" t="e">
         <f>SUM(C43:C45)</f>
@@ -7891,7 +7891,7 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0A'!B43)</f>
@@ -7912,7 +7912,7 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14" t="e">
@@ -7930,7 +7930,7 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="14" t="e">
@@ -7949,7 +7949,7 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -7963,7 +7963,7 @@
       </c>
       <c r="E50" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="E52" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -8038,7 +8038,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -8052,51 +8052,51 @@
     </row>
     <row r="10" spans="2:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="58" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="E10" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="F10" s="38" t="s">
         <v>433</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="G10" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="H10" s="38" t="s">
         <v>435</v>
-      </c>
-      <c r="H10" s="38" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="F11" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="G11" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="H11" s="39" t="s">
         <v>441</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C12" s="13" t="e">
         <f>SUM(C13:C15)</f>
@@ -8125,7 +8125,7 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B13)</f>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B14)</f>
@@ -8183,7 +8183,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B15)</f>
@@ -8221,7 +8221,7 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C17" s="13" t="e">
         <f>SUM(C18:C20)</f>
@@ -8250,7 +8250,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B18)</f>
@@ -8279,7 +8279,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B19)</f>
@@ -8308,7 +8308,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q0B'!B20)</f>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUMIFS(#REF!,#REF!,"99*",#REF!,99,#REF!,999)</f>
@@ -8375,7 +8375,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C24" s="13" t="e">
         <f>C12+C17+C22</f>
@@ -8413,7 +8413,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C26" s="13">
         <f>C27+C30</f>
@@ -8442,7 +8442,7 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C27" s="14">
         <f>SUM(C28:C29)</f>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C30" s="14">
         <f>SUM(C31:C32)</f>
@@ -8528,7 +8528,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
@@ -8542,7 +8542,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
@@ -8565,7 +8565,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C34" s="13" t="e">
         <f>C24+C26</f>
@@ -8594,7 +8594,7 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>IF(C34&lt;'BO Q0A'!C39,'BO Q0A'!C39-'BO Q0B'!C34,0)</f>
@@ -8620,7 +8620,7 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C36" s="16" t="e">
         <f>C34+C35</f>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C37" s="13" t="e">
         <f>SUMIFS(#REF!,#REF!,"99*",#REF!,99,#REF!,997)</f>
@@ -8667,7 +8667,7 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -8683,7 +8683,7 @@
       </c>
       <c r="G42" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="G44" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -8756,12 +8756,12 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -8773,29 +8773,29 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="58"/>
       <c r="C10" s="59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" s="60"/>
       <c r="E10" s="61" t="s">
+        <v>465</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>466</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="G10" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="G10" s="61" t="s">
+      <c r="H10" s="61" t="s">
         <v>468</v>
-      </c>
-      <c r="H10" s="61" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>464</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>465</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -8805,27 +8805,27 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="58"/>
       <c r="C12" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="H12" s="39" t="s">
         <v>470</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="13" t="e">
         <f>SUM(C14:C16)</f>
@@ -8854,7 +8854,7 @@
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B14)</f>
@@ -8883,7 +8883,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B15)</f>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B16)</f>
@@ -8950,7 +8950,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18" s="13" t="e">
         <f>SUM(C19:C21)</f>
@@ -8979,7 +8979,7 @@
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B19)</f>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B20)</f>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q1'!B21)</f>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="16" t="e">
         <f>C13+C18</f>
@@ -9105,7 +9105,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -9121,7 +9121,7 @@
       </c>
       <c r="G28" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="G30" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -9181,16 +9181,16 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="str">
         <f ca="1">"Fonte: MS Excel; Órgão emissor: "&amp;paramOrgaoEmissor&amp;"; Data de emissão: "&amp;TEXT(NOW(),"dd/mm/aaaa, \à\s hh:mm")</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C4" s="1">
         <f>DATE(YEAR(paramDataBase),1,1)</f>
@@ -9244,12 +9244,12 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -9261,26 +9261,26 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="58"/>
       <c r="C10" s="59" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" s="60"/>
       <c r="E10" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>467</v>
       </c>
-      <c r="F10" s="61" t="s">
+      <c r="G10" s="61" t="s">
         <v>468</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B11" s="58"/>
       <c r="C11" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="40" t="s">
         <v>464</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>465</v>
       </c>
       <c r="E11" s="62"/>
       <c r="F11" s="62"/>
@@ -9289,24 +9289,24 @@
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="58"/>
       <c r="C12" s="39" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G12" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C13" s="13" t="e">
         <f>SUM(C14:C16)</f>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B14)</f>
@@ -9356,7 +9356,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B15)</f>
@@ -9381,7 +9381,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B16)</f>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C18" s="13" t="e">
         <f>SUM(C19:C21)</f>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B19)</f>
@@ -9464,7 +9464,7 @@
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B20)</f>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BO Q2'!B21)</f>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C23" s="16" t="e">
         <f>C13+C18</f>
@@ -9548,7 +9548,7 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -9563,7 +9563,7 @@
       </c>
       <c r="F28" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -9583,7 +9583,7 @@
       </c>
       <c r="F30" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -9641,7 +9641,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -9655,18 +9655,18 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C11" s="13" t="e">
         <f>SUM(C12:C21)</f>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B12)</f>
@@ -9692,7 +9692,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B13)</f>
@@ -9705,7 +9705,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B14)</f>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B15)</f>
@@ -9731,7 +9731,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B16)</f>
@@ -9744,7 +9744,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B17)</f>
@@ -9757,7 +9757,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B18)</f>
@@ -9770,7 +9770,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B19)</f>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>'DFC Q1'!C17</f>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B21)+SUM(#REF!)</f>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C22" s="13" t="e">
         <f>SUM(C23:C26)</f>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>'DFC Q2'!C39</f>
@@ -9835,7 +9835,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>'DFC Q3'!C14</f>
@@ -9848,7 +9848,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>'DFC Q1'!C27</f>
@@ -9861,14 +9861,14 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>C11-C22</f>
@@ -9886,18 +9886,18 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="13" t="e">
         <f>SUM(C31:C33)</f>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B31)</f>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B32)</f>
@@ -9936,7 +9936,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C33" s="14">
         <f>SUM(tblDFCOutrosIngressosInvestimento[Valor])</f>
@@ -9949,7 +9949,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C34" s="13" t="e">
         <f>SUM(C35:C37)</f>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B35)</f>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B36)</f>
@@ -9988,7 +9988,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B37)</f>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C38" s="15" t="e">
         <f>C30-C34</f>
@@ -10019,18 +10019,18 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C41" s="13" t="e">
         <f>SUM(C42:C44)</f>
@@ -10043,7 +10043,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C42" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B42)</f>
@@ -10056,7 +10056,7 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C43" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B43)</f>
@@ -10069,7 +10069,7 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C44" s="14">
         <f>SUM(tblDFCOutrosIngressosFinanciamento[Valor])</f>
@@ -10082,7 +10082,7 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C45" s="13" t="e">
         <f>SUM(C46:C47)</f>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C46" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q0'!B46)</f>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C48" s="15" t="e">
         <f>C41-C45</f>
@@ -10137,18 +10137,18 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C51" s="13" t="e">
         <f>C27+C38+C48</f>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C52" s="14" t="e">
         <f>SUM(#REF!)</f>
@@ -10174,7 +10174,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B53" s="52" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C53" s="41" t="e">
         <f>SUM(#REF!)</f>
@@ -10188,7 +10188,7 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -10200,7 +10200,7 @@
       </c>
       <c r="C58" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="C60" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -10273,12 +10273,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -10289,18 +10289,18 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUM(C12:C14)</f>
@@ -10313,7 +10313,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B12)</f>
@@ -10326,7 +10326,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B13)</f>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B14)</f>
@@ -10352,7 +10352,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,"A",#REF!,"intra")</f>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B16)</f>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C17" s="15" t="e">
         <f>C11+C15+C16</f>
@@ -10396,18 +10396,18 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUM(C21:C24)</f>
@@ -10420,7 +10420,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B21)</f>
@@ -10433,7 +10433,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B22)</f>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B23)</f>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B24)</f>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B25)</f>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q1'!B26)</f>
@@ -10498,7 +10498,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C27" s="15" t="e">
         <f>C20+C25+C26</f>
@@ -10512,7 +10512,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="C32" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="C34" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -10597,12 +10597,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -10613,18 +10613,18 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B11)</f>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B12)</f>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B13)</f>
@@ -10663,7 +10663,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="37" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B14)</f>
@@ -10676,7 +10676,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B15)</f>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B16)</f>
@@ -10702,7 +10702,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B17)</f>
@@ -10715,7 +10715,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B18)</f>
@@ -10728,7 +10728,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="37" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B19)</f>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B20)</f>
@@ -10754,7 +10754,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B21)</f>
@@ -10767,7 +10767,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B22)</f>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="37" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B23)</f>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B24)</f>
@@ -10806,7 +10806,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="37" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B25)</f>
@@ -10819,7 +10819,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B26)</f>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="37" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B27)</f>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C28" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B28)</f>
@@ -10858,7 +10858,7 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C29" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B29)</f>
@@ -10871,7 +10871,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C30" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B30)</f>
@@ -10884,7 +10884,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C31" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B31)</f>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="37" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C32" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B32)</f>
@@ -10910,7 +10910,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="37" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C33" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B33)</f>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="37" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C34" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B34)</f>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B35)</f>
@@ -10949,7 +10949,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B36)</f>
@@ -10962,7 +10962,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B37)</f>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q2'!B38)</f>
@@ -10988,7 +10988,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C39" s="15" t="e">
         <f>SUM(C11:C38)</f>
@@ -11002,7 +11002,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -11014,7 +11014,7 @@
       </c>
       <c r="C44" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="C46" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -11087,12 +11087,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -11103,18 +11103,18 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C11" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B11)</f>
@@ -11127,7 +11127,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B12)</f>
@@ -11140,7 +11140,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'DFC Q3'!B13)</f>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" s="15" t="e">
         <f>SUM(C11:C13)</f>
@@ -11167,7 +11167,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -11179,7 +11179,7 @@
       </c>
       <c r="C19" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -11199,7 +11199,7 @@
       </c>
       <c r="C21" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -11227,24 +11227,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
+        <v>566</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="C1" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="D1" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="E1" s="46" t="s">
         <v>570</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B2" s="48" t="e">
         <f>'BP Q0'!C30</f>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B3" s="49" t="e">
         <f>'BP Q0'!D14</f>
@@ -11280,7 +11280,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" s="50" t="e">
         <f>'BP Q0'!C14</f>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B5" s="49" t="e">
         <f>'BP Q0'!C61</f>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B6" s="50" t="e">
         <f>'BP Q1'!C12-'BP Q1'!C17</f>
@@ -11334,7 +11334,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B7" s="49" t="e">
         <f>'BP Q0'!C25</f>
@@ -11352,7 +11352,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B8" s="50" t="e">
         <f>'DVP Q0'!C35</f>
@@ -11370,7 +11370,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B9" s="49" t="e">
         <f>'DVP Q0'!C20</f>
@@ -11388,7 +11388,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B10" s="50" t="e">
         <f>'DVP Q0'!C33</f>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B11" s="49">
         <f>'BF Q0A'!C27</f>
@@ -11424,7 +11424,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B12" s="50" t="e">
         <f>'BF Q0B'!C27</f>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B13" s="49" t="e">
         <f>'BF Q0A'!C54</f>
@@ -11460,7 +11460,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B14" s="50" t="e">
         <f>'BF Q0B'!C42</f>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B15" s="49" t="e">
         <f>'BF Q0B'!C43</f>
@@ -11496,7 +11496,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B16" s="50" t="e">
         <f>'BF Q0A'!C42</f>
@@ -11514,7 +11514,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B17" s="49" t="e">
         <f>'BF Q0A'!C43</f>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B18" s="50" t="e">
         <f>ROUND('DFC Q0'!C52+'DFC Q0'!C27+'DFC Q0'!C38+'DFC Q0'!C48,2)</f>
@@ -11550,7 +11550,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B19" s="49" t="e">
         <f>'DFC Q0'!C52</f>
@@ -11568,7 +11568,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B20" s="50" t="e">
         <f>'DFC Q0'!C51</f>
@@ -11586,7 +11586,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B21" s="49" t="e">
         <f>'BP Q0'!C30</f>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B22" s="50" t="e">
         <f>'BP Q0'!C42+'BP Q0'!C52</f>
@@ -11699,30 +11699,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C2" t="s">
         <v>597</v>
       </c>
-      <c r="B2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C2" t="s">
-        <v>599</v>
-      </c>
       <c r="E2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F2" t="s">
+        <v>596</v>
+      </c>
+      <c r="G2" t="s">
         <v>597</v>
-      </c>
-      <c r="F2" t="s">
-        <v>598</v>
-      </c>
-      <c r="G2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -11842,65 +11842,65 @@
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="K1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F2" t="s">
         <v>601</v>
       </c>
-      <c r="F2" t="s">
-        <v>603</v>
-      </c>
       <c r="H2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -12054,7 +12054,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -12069,15 +12069,15 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12089,14 +12089,14 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B14)</f>
@@ -12109,7 +12109,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B15)</f>
@@ -12122,7 +12122,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B16)</f>
@@ -12135,7 +12135,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B17)</f>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B18)</f>
@@ -12161,7 +12161,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B19)</f>
@@ -12174,7 +12174,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="15" t="e">
         <f>SUM(C14:C19)</f>
@@ -12192,14 +12192,14 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B23)</f>
@@ -12212,7 +12212,7 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B24)</f>
@@ -12225,7 +12225,7 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B25)</f>
@@ -12238,7 +12238,7 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B26)</f>
@@ -12251,7 +12251,7 @@
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B27)</f>
@@ -12264,7 +12264,7 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="15" t="e">
         <f>SUM(C23:C27)</f>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="16" t="e">
         <f>C20+C28</f>
@@ -12300,7 +12300,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -12312,14 +12312,14 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B35)</f>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B36)</f>
@@ -12345,7 +12345,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B37)</f>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B38)</f>
@@ -12371,7 +12371,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C39" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B39)</f>
@@ -12384,7 +12384,7 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B40)</f>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B41)</f>
@@ -12410,7 +12410,7 @@
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="15" t="e">
         <f>SUM(C35:C41)</f>
@@ -12428,14 +12428,14 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B45)</f>
@@ -12448,7 +12448,7 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B46)</f>
@@ -12461,7 +12461,7 @@
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B47)</f>
@@ -12474,7 +12474,7 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C48" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B48)</f>
@@ -12487,7 +12487,7 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B49)</f>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C50" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B50)</f>
@@ -12513,7 +12513,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B51)</f>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="15" t="e">
         <f>SUM(C45:C51)</f>
@@ -12544,14 +12544,14 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B55)</f>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B56)</f>
@@ -12577,7 +12577,7 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C57" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B57)</f>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B58)</f>
@@ -12603,7 +12603,7 @@
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B59)</f>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B60)</f>
@@ -12629,7 +12629,7 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B61)</f>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q0'!B62)</f>
@@ -12655,7 +12655,7 @@
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B63" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" s="15" t="e">
         <f>SUM(C55:C61)-C62</f>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65" s="16" t="e">
         <f>C42+C52+C63</f>
@@ -12687,7 +12687,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
@@ -12699,7 +12699,7 @@
       </c>
       <c r="C70" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="C72" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -12774,12 +12774,12 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -12791,22 +12791,22 @@
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q1'!B12)</f>
@@ -12820,7 +12820,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q1'!B13)</f>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C14" s="15" t="e">
         <f>C12+C13</f>
@@ -12851,14 +12851,14 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C17" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q1'!B17)</f>
@@ -12871,7 +12871,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q1'!B18)</f>
@@ -12884,7 +12884,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="15" t="e">
         <f>C17+C18</f>
@@ -12902,7 +12902,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="16" t="e">
         <f>C14-C19</f>
@@ -12916,7 +12916,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C26" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C28" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -13001,12 +13001,12 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -13018,22 +13018,22 @@
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B12)</f>
@@ -13046,7 +13046,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B13)</f>
@@ -13059,7 +13059,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B14)</f>
@@ -13072,7 +13072,7 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C15" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B15)</f>
@@ -13085,7 +13085,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C16" s="15" t="e">
         <f>SUM(C12:C15)</f>
@@ -13103,14 +13103,14 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C19" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B19)</f>
@@ -13123,7 +13123,7 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B20)</f>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C21" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B21)</f>
@@ -13149,7 +13149,7 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="14" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q2'!B22)</f>
@@ -13162,7 +13162,7 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23" s="15" t="e">
         <f>SUM(C19:C22)</f>
@@ -13176,7 +13176,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -13188,7 +13188,7 @@
       </c>
       <c r="C28" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C30" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -13265,13 +13265,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -13284,14 +13284,14 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
@@ -13299,7 +13299,7 @@
         <v>500</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11" s="24" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B11)</f>
@@ -13315,7 +13315,7 @@
         <v>501</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B12)</f>
@@ -13331,7 +13331,7 @@
         <v>502</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B13)</f>
@@ -13347,7 +13347,7 @@
         <v>540</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B14)</f>
@@ -13363,7 +13363,7 @@
         <v>541</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D15" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B15)</f>
@@ -13379,7 +13379,7 @@
         <v>542</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D16" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B16)</f>
@@ -13395,7 +13395,7 @@
         <v>543</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D17" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B17)</f>
@@ -13411,7 +13411,7 @@
         <v>544</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B18)</f>
@@ -13427,7 +13427,7 @@
         <v>550</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B19)</f>
@@ -13443,7 +13443,7 @@
         <v>551</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D20" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B20)</f>
@@ -13459,7 +13459,7 @@
         <v>552</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D21" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B21)</f>
@@ -13475,7 +13475,7 @@
         <v>553</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D22" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B22)</f>
@@ -13491,7 +13491,7 @@
         <v>569</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D23" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B23)</f>
@@ -13507,7 +13507,7 @@
         <v>570</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D24" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B24)</f>
@@ -13523,7 +13523,7 @@
         <v>571</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B25)</f>
@@ -13539,7 +13539,7 @@
         <v>572</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B26)</f>
@@ -13555,7 +13555,7 @@
         <v>573</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D27" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B27)</f>
@@ -13571,7 +13571,7 @@
         <v>574</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B28)</f>
@@ -13587,7 +13587,7 @@
         <v>575</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D29" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B29)</f>
@@ -13603,7 +13603,7 @@
         <v>576</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D30" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B30)</f>
@@ -13619,7 +13619,7 @@
         <v>599</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D31" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B31)</f>
@@ -13635,7 +13635,7 @@
         <v>600</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B32)</f>
@@ -13651,7 +13651,7 @@
         <v>601</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D33" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B33)</f>
@@ -13667,7 +13667,7 @@
         <v>602</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D34" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B34)</f>
@@ -13683,7 +13683,7 @@
         <v>603</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B35)</f>
@@ -13699,7 +13699,7 @@
         <v>604</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D36" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B36)</f>
@@ -13715,7 +13715,7 @@
         <v>605</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D37" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B37)</f>
@@ -13731,7 +13731,7 @@
         <v>621</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B38)</f>
@@ -13747,7 +13747,7 @@
         <v>622</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B39)</f>
@@ -13763,7 +13763,7 @@
         <v>631</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B40)</f>
@@ -13779,7 +13779,7 @@
         <v>632</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D41" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B41)</f>
@@ -13795,7 +13795,7 @@
         <v>633</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B42)</f>
@@ -13811,7 +13811,7 @@
         <v>634</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B43)</f>
@@ -13827,7 +13827,7 @@
         <v>635</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B44)</f>
@@ -13843,7 +13843,7 @@
         <v>636</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B45)</f>
@@ -13859,7 +13859,7 @@
         <v>659</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D46" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B46)</f>
@@ -13875,7 +13875,7 @@
         <v>660</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D47" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B47)</f>
@@ -13891,7 +13891,7 @@
         <v>661</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D48" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B48)</f>
@@ -13907,7 +13907,7 @@
         <v>662</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D49" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B49)</f>
@@ -13923,7 +13923,7 @@
         <v>665</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D50" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B50)</f>
@@ -13939,7 +13939,7 @@
         <v>669</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B51)</f>
@@ -13955,7 +13955,7 @@
         <v>700</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D52" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B52)</f>
@@ -13971,7 +13971,7 @@
         <v>701</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D53" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B53)</f>
@@ -13987,7 +13987,7 @@
         <v>702</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D54" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B54)</f>
@@ -14003,7 +14003,7 @@
         <v>703</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B55)</f>
@@ -14019,7 +14019,7 @@
         <v>704</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D56" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B56)</f>
@@ -14035,7 +14035,7 @@
         <v>705</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B57)</f>
@@ -14051,7 +14051,7 @@
         <v>706</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B58)</f>
@@ -14067,7 +14067,7 @@
         <v>707</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D59" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B59)</f>
@@ -14083,7 +14083,7 @@
         <v>708</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B60)</f>
@@ -14099,7 +14099,7 @@
         <v>709</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D61" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B61)</f>
@@ -14115,7 +14115,7 @@
         <v>710</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D62" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B62)</f>
@@ -14131,7 +14131,7 @@
         <v>711</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D63" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B63)</f>
@@ -14147,7 +14147,7 @@
         <v>712</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D64" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B64)</f>
@@ -14163,7 +14163,7 @@
         <v>713</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B65)</f>
@@ -14179,7 +14179,7 @@
         <v>714</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D66" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B66)</f>
@@ -14195,7 +14195,7 @@
         <v>715</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D67" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B67)</f>
@@ -14211,7 +14211,7 @@
         <v>716</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B68)</f>
@@ -14227,7 +14227,7 @@
         <v>717</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B69)</f>
@@ -14243,7 +14243,7 @@
         <v>718</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B70)</f>
@@ -14259,7 +14259,7 @@
         <v>719</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B71)</f>
@@ -14275,7 +14275,7 @@
         <v>749</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D72" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B72)</f>
@@ -14291,7 +14291,7 @@
         <v>750</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D73" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B73)</f>
@@ -14307,7 +14307,7 @@
         <v>751</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D74" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B74)</f>
@@ -14323,7 +14323,7 @@
         <v>752</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D75" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B75)</f>
@@ -14339,7 +14339,7 @@
         <v>753</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D76" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B76)</f>
@@ -14355,7 +14355,7 @@
         <v>754</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D77" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B77)</f>
@@ -14371,7 +14371,7 @@
         <v>755</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B78)</f>
@@ -14387,7 +14387,7 @@
         <v>756</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B79)</f>
@@ -14403,7 +14403,7 @@
         <v>757</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D80" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B80)</f>
@@ -14419,7 +14419,7 @@
         <v>758</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D81" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B81)</f>
@@ -14435,7 +14435,7 @@
         <v>759</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D82" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B82)</f>
@@ -14451,7 +14451,7 @@
         <v>760</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B83)</f>
@@ -14467,7 +14467,7 @@
         <v>761</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D84" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B84)</f>
@@ -14483,7 +14483,7 @@
         <v>799</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D85" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B85)</f>
@@ -14499,7 +14499,7 @@
         <v>800</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D86" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B86)</f>
@@ -14515,7 +14515,7 @@
         <v>801</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D87" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B87)</f>
@@ -14531,7 +14531,7 @@
         <v>802</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D88" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B88)</f>
@@ -14547,7 +14547,7 @@
         <v>803</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B89)</f>
@@ -14563,7 +14563,7 @@
         <v>860</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D90" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B90)</f>
@@ -14579,7 +14579,7 @@
         <v>861</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D91" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B91)</f>
@@ -14595,7 +14595,7 @@
         <v>862</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D92" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B92)</f>
@@ -14611,7 +14611,7 @@
         <v>869</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D93" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B93)</f>
@@ -14627,7 +14627,7 @@
         <v>880</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D94" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B94)</f>
@@ -14643,7 +14643,7 @@
         <v>898</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D95" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B95)</f>
@@ -14659,7 +14659,7 @@
         <v>899</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D96" s="26" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q3'!B96)</f>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C97" s="57"/>
       <c r="D97" s="16" t="e">
@@ -14687,7 +14687,7 @@
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
@@ -14700,7 +14700,7 @@
       </c>
       <c r="D102" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -14720,7 +14720,7 @@
       </c>
       <c r="D104" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>
@@ -14779,12 +14779,12 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -14795,21 +14795,21 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="31" t="e">
         <f>SUM(C12:C23)</f>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C12" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B12)</f>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C13" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B13)</f>
@@ -14860,7 +14860,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C14" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B14)</f>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B15)</f>
@@ -14894,7 +14894,7 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B16)</f>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B17)</f>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B18)</f>
@@ -14945,7 +14945,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B19)</f>
@@ -14962,7 +14962,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C20" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B20)</f>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C21" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B21)</f>
@@ -14996,7 +14996,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="29" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B22)</f>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B23)</f>
@@ -15030,7 +15030,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C24" s="31" t="e">
         <f>SUM(C25:C32)</f>
@@ -15047,7 +15047,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B25)</f>
@@ -15064,7 +15064,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="29" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B26)</f>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="29" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C27" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B27)</f>
@@ -15098,7 +15098,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C28" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B28)</f>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C29" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B29)</f>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C30" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B30)</f>
@@ -15149,7 +15149,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C31" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B31)</f>
@@ -15166,7 +15166,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C32" s="25" t="e">
         <f>SUMIFS(#REF!,#REF!,'BP Q4'!B32)</f>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="16" t="e">
         <f>C11+C24</f>
@@ -15201,7 +15201,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 12/07/2024, às 13:53</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="D38" s="3" t="str">
         <f>UPPER(assGestorNome)</f>
-        <v>JOÃO EDÉCIO GRAEF</v>
+        <v>EDUARDO MAAHS MARASCA</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="D40" s="3" t="str">
         <f>"CPF nº "&amp;assGestorCPF</f>
-        <v>CPF nº 189.955.190.53</v>
+        <v>CPF nº 025.683.290-09</v>
       </c>
     </row>
   </sheetData>

--- a/tpl/dcasp v2024.01.99.xlsx
+++ b/tpl/dcasp v2024.01.99.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everton\Desktop\Sistemas\rptgen\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B417CF-5B0A-457D-A4CB-2ABE3342A4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E86850-66F6-4320-A101-AD15A8418039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="24" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros Manuais" sheetId="1" r:id="rId1"/>
@@ -2818,7 +2818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2691581A-1C5D-436D-8A00-3D7C6FD59808}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -3174,7 +3174,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3211,7 +3211,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -3562,7 +3563,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -3601,6 +3602,7 @@
   <mergeCells count="1">
     <mergeCell ref="B36:D36"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4390,7 +4392,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -4429,6 +4431,7 @@
   <mergeCells count="1">
     <mergeCell ref="B78:D78"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5395,7 +5398,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -5434,6 +5437,7 @@
   <mergeCells count="1">
     <mergeCell ref="B95:D95"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5447,7 +5451,7 @@
   </sheetPr>
   <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6132,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6167,9 +6171,9 @@
   <mergeCells count="1">
     <mergeCell ref="B55:D55"/>
   </mergeCells>
-  <printOptions headings="1" gridLines="1"/>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6181,7 +6185,7 @@
   </sheetPr>
   <dimension ref="B2:O61"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
@@ -6761,7 +6765,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6800,6 +6804,7 @@
   <mergeCells count="1">
     <mergeCell ref="B55:D55"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7195,7 +7200,7 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -7241,9 +7246,8 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B10:B12"/>
   </mergeCells>
-  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="62" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7949,7 +7953,7 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -7991,6 +7995,7 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B46:F46"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8004,7 +8009,7 @@
   </sheetPr>
   <dimension ref="B2:H44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -8667,7 +8672,7 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -9105,7 +9110,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -9154,9 +9159,8 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="H10:H11"/>
   </mergeCells>
-  <printOptions headings="1" gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9185,7 +9189,7 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"Fonte: MS Excel; Órgão emissor: "&amp;paramOrgaoEmissor&amp;"; Data de emissão: "&amp;TEXT(NOW(),"dd/mm/aaaa, \à\s hh:mm")</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -9548,7 +9552,7 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -10188,7 +10192,7 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -10227,6 +10231,7 @@
   <mergeCells count="1">
     <mergeCell ref="B54:D54"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10512,7 +10517,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -10551,6 +10556,7 @@
   <mergeCells count="1">
     <mergeCell ref="B28:D28"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11002,7 +11008,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -11041,6 +11047,7 @@
   <mergeCells count="1">
     <mergeCell ref="B40:D40"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11167,7 +11174,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -11206,6 +11213,7 @@
   <mergeCells count="1">
     <mergeCell ref="B15:D15"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11215,7 +11223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0FEF76-DC74-4C14-9D75-7EB72B9B44D2}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -12687,7 +12695,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
@@ -12726,6 +12734,7 @@
   <mergeCells count="1">
     <mergeCell ref="B66:D66"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12916,7 +12925,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -12955,7 +12964,8 @@
   <mergeCells count="1">
     <mergeCell ref="B22:D22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -13176,7 +13186,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -13215,7 +13225,8 @@
   <mergeCells count="1">
     <mergeCell ref="B24:D24"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
@@ -13228,7 +13239,7 @@
   </sheetPr>
   <dimension ref="B2:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
@@ -14687,7 +14698,7 @@
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
@@ -14729,8 +14740,12 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B97:C97"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="93" min="1" max="4" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -15201,7 +15216,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 13/02/2025, às 15:44</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
@@ -15238,7 +15253,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tpl/dcasp v2024.01.99.xlsx
+++ b/tpl/dcasp v2024.01.99.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Everton\Desktop\Sistemas\rptgen\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E86850-66F6-4320-A101-AD15A8418039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0603F20-12FF-49D1-BDA8-34F2EDC59F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="24" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="24" xr2:uid="{F4F7366A-F902-4471-8E3C-BFE20B26D311}"/>
   </bookViews>
   <sheets>
     <sheet name="Parâmetros Manuais" sheetId="1" r:id="rId1"/>
@@ -3174,7 +3174,7 @@
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -3563,7 +3563,7 @@
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C36" s="55"/>
       <c r="D36" s="55"/>
@@ -4392,7 +4392,7 @@
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C78" s="55"/>
       <c r="D78" s="55"/>
@@ -5398,7 +5398,7 @@
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C95" s="55"/>
       <c r="D95" s="55"/>
@@ -6132,7 +6132,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6765,7 +6765,7 @@
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -7200,7 +7200,7 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -7953,7 +7953,7 @@
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -8672,7 +8672,7 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -9110,7 +9110,7 @@
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="C3" t="str">
         <f ca="1">"Fonte: MS Excel; Órgão emissor: "&amp;paramOrgaoEmissor&amp;"; Data de emissão: "&amp;TEXT(NOW(),"dd/mm/aaaa, \à\s hh:mm")</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -9552,7 +9552,7 @@
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -10192,7 +10192,7 @@
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C54" s="55"/>
       <c r="D54" s="55"/>
@@ -10517,7 +10517,7 @@
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C28" s="55"/>
       <c r="D28" s="55"/>
@@ -11008,7 +11008,7 @@
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
@@ -11174,7 +11174,7 @@
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C15" s="55"/>
       <c r="D15" s="55"/>
@@ -11224,7 +11224,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11273,11 +11273,11 @@
         <v>572</v>
       </c>
       <c r="B3" s="49" t="e">
-        <f>'BP Q0'!D14</f>
+        <f>'BP Q0'!D14+'BP Q0'!D16</f>
         <v>#REF!</v>
       </c>
       <c r="C3" s="49" t="e">
-        <f>'BF Q0A'!C49</f>
+        <f>'BF Q0A'!C49+'BF Q0A'!C50</f>
         <v>#REF!</v>
       </c>
       <c r="D3" s="49"/>
@@ -11291,11 +11291,11 @@
         <v>573</v>
       </c>
       <c r="B4" s="50" t="e">
-        <f>'BP Q0'!C14</f>
+        <f>'BP Q0'!C14+'BP Q0'!C16</f>
         <v>#REF!</v>
       </c>
       <c r="C4" s="50" t="e">
-        <f>'BF Q0B'!C49</f>
+        <f>'BF Q0B'!C49+'BF Q0B'!C50</f>
         <v>#REF!</v>
       </c>
       <c r="D4" s="50"/>
@@ -12695,7 +12695,7 @@
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C66" s="55"/>
       <c r="D66" s="55"/>
@@ -12925,7 +12925,7 @@
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
@@ -13186,7 +13186,7 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -14698,7 +14698,7 @@
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="55" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C98" s="55"/>
       <c r="D98" s="55"/>
@@ -15216,7 +15216,7 @@
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="str">
         <f ca="1">paramFonte</f>
-        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 08:10</v>
+        <v>Fonte: MS Excel; Órgão emissor: Secretaria da Fazenda / Setor de Contabilidade; Data de emissão: 14/02/2025, às 11:07</v>
       </c>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
